--- a/template/Mal-for-import-av-fremmote.v21.04.2023.xlsx
+++ b/template/Mal-for-import-av-fremmote.v21.04.2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stien/dev/choirmate/msf-fremmote-gen/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stien/dev/choirmate/msf-fremmote/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EFC43E-9011-AA43-B405-905BD4E679D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC985B-5988-9348-B059-57FFC4F212E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -192,15 +192,6 @@
   </si>
   <si>
     <t>Timer med lærer</t>
-  </si>
-  <si>
-    <t>12.12.2022</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>Fysisk</t>
   </si>
 </sst>
 </file>
@@ -586,7 +577,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -635,9 +626,7 @@
       <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -646,9 +635,7 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -657,9 +644,7 @@
       <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -668,9 +653,7 @@
       <c r="J5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -703,9 +686,7 @@
       <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
